--- a/admin/Exams_List.xlsx
+++ b/admin/Exams_List.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Exam Name</t>
   </si>
@@ -33,30 +33,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>2003-06-22</t>
-  </si>
-  <si>
-    <t>Exam1</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>The Then Them</t>
-  </si>
-  <si>
-    <t>2006-06-22</t>
-  </si>
-  <si>
-    <t>New Test</t>
   </si>
 </sst>
 </file>
@@ -395,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,78 +397,6 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4"/>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5"/>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
